--- a/doc/Salus_NewUI_Schedule_170915.xlsx
+++ b/doc/Salus_NewUI_Schedule_170915.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Projects\Computime\New Gateway UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.guo\Desktop\xmind\xmind\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="-30" windowWidth="15360" windowHeight="8085"/>
+    <workbookView xWindow="4005" yWindow="-30" windowWidth="15360" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Milestones" sheetId="2" r:id="rId1"/>
     <sheet name="Schedule" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Task</t>
   </si>
@@ -83,17 +84,68 @@
   <si>
     <t>Development end</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Page</t>
+  </si>
+  <si>
+    <t>Temperature Panel</t>
+  </si>
+  <si>
+    <t>Smart Home Panel</t>
+  </si>
+  <si>
+    <t>Voice Control</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Lock Screen</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Sweet Spots</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>当前完成率</t>
+  </si>
+  <si>
+    <t>计划本周完成</t>
+  </si>
+  <si>
+    <t>计划下周完成</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +176,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -138,6 +190,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,11 +295,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -293,6 +362,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -300,6 +372,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,21 +692,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="49.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="0" style="7" hidden="1"/>
-    <col min="8" max="16384" width="9.125" style="7" hidden="1"/>
+    <col min="1" max="1" width="8.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="7" customWidth="1"/>
+    <col min="4" max="7" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -631,7 +714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -643,7 +726,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -654,7 +737,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -666,7 +749,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -678,7 +761,7 @@
         <v>43028</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -690,7 +773,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -702,28 +785,28 @@
         <v>43052</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15"/>
-    <row r="17" x14ac:dyDescent="0.15"/>
-    <row r="18" x14ac:dyDescent="0.15"/>
-    <row r="19" x14ac:dyDescent="0.15"/>
-    <row r="20" x14ac:dyDescent="0.15"/>
-    <row r="21" x14ac:dyDescent="0.15"/>
-    <row r="22" x14ac:dyDescent="0.15"/>
-    <row r="23" x14ac:dyDescent="0.15"/>
-    <row r="24" x14ac:dyDescent="0.15"/>
-    <row r="25" x14ac:dyDescent="0.15"/>
-    <row r="26" x14ac:dyDescent="0.15"/>
-    <row r="27" x14ac:dyDescent="0.15"/>
-    <row r="28" x14ac:dyDescent="0.15"/>
-    <row r="29" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3"/>
+    <row r="9" spans="1:3"/>
+    <row r="10" spans="1:3"/>
+    <row r="11" spans="1:3"/>
+    <row r="12" spans="1:3"/>
+    <row r="13" spans="1:3"/>
+    <row r="14" spans="1:3"/>
+    <row r="15" spans="1:3"/>
+    <row r="16" spans="1:3"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,44 +819,44 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="20.25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="37.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="20" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -786,10 +869,10 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -807,7 +890,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -827,7 +910,7 @@
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -842,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -855,7 +938,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="15"/>
       <c r="C22" s="19"/>
       <c r="D22" s="17"/>
@@ -867,7 +950,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="15"/>
       <c r="C23" s="19"/>
       <c r="D23" s="17"/>
@@ -879,7 +962,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="15"/>
       <c r="C24" s="19"/>
       <c r="D24" s="17"/>
@@ -891,7 +974,7 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
@@ -903,7 +986,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -926,4 +1009,259 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="25">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="25">
+        <v>0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="25">
+        <v>0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="26">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>